--- a/backend/src/main/resources/static/report-xlsx/XUSM3010_1.xlsx
+++ b/backend/src/main/resources/static/report-xlsx/XUSM3010_1.xlsx
@@ -25,7 +25,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="10.0"/>
+      <color rgb="000000"/>
+      <name val="HY견고딕"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="000000"/>
+      <name val="HY견고딕"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <color rgb="000000"/>
       <name val="HY견고딕"/>
       <b val="false"/>
@@ -54,6 +74,21 @@
         <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders>
     <border>
@@ -61,6 +96,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color rgb="000000"/>
+      </left>
+      <right>
+        <color rgb="000000"/>
+      </right>
+      <top>
+        <color rgb="000000"/>
+      </top>
+      <bottom>
+        <color rgb="000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -88,7 +138,19 @@
       <alignment wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="center" vertical="center"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -100,6 +162,42 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1763534624" name="Picture">
+</xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="img_0_0_4.jpg"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect l="0" t="0" r="69642" b="0"/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0">
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -115,68 +213,368 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="1" width="3.3333333"/>
-    <col min="2" max="2" customWidth="1" width="30.166666"/>
-    <col min="3" max="3" customWidth="1" width="61.5"/>
-    <col min="4" max="4" customWidth="1" width="4.1666665"/>
+    <col min="2" max="2" customWidth="1" width="3.3333333"/>
+    <col min="3" max="3" customWidth="1" width="11.666667"/>
+    <col min="4" max="4" customWidth="1" width="5.0"/>
+    <col min="5" max="5" customWidth="1" width="21.666666"/>
+    <col min="6" max="6" customWidth="1" width="5.0"/>
+    <col min="7" max="7" customWidth="1" width="16.666666"/>
+    <col min="8" max="8" customWidth="1" width="8.333333"/>
+    <col min="9" max="9" customWidth="1" width="8.333333"/>
+    <col min="10" max="10" customWidth="1" width="13.333333"/>
+    <col min="11" max="11" customWidth="1" width="13.333333"/>
+    <col min="12" max="12" customWidth="1" width="15.0"/>
+    <col min="13" max="13" customWidth="1" width="15.333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="177">
+    <row r="1" customHeight="1" ht="46">
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr"/>
-    </row>
-    <row r="2" customHeight="1" ht="71">
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2" customHeight="1" ht="30">
       <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">프로그램ID</t>
-          </r>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">프로그램 명</t>
-          </r>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr"/>
-    </row>
-    <row r="3" customHeight="1" ht="1">
+      <c r="B2" s="2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="1" t="inlineStr"/>
+      <c r="H2" s="1" t="inlineStr"/>
+      <c r="I2" s="1" t="inlineStr"/>
+      <c r="J2" s="1" t="inlineStr"/>
+      <c r="K2" s="1" t="inlineStr"/>
+      <c r="L2" s="1" t="inlineStr"/>
+      <c r="M2" s="1" t="inlineStr"/>
+    </row>
+    <row r="3" customHeight="1" ht="10">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" s="1" t="inlineStr"/>
       <c r="C3" s="1" t="inlineStr"/>
       <c r="D3" s="1" t="inlineStr"/>
-    </row>
-    <row r="4" customHeight="1" ht="60">
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="1" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="1" t="inlineStr"/>
+      <c r="J3" s="1" t="inlineStr"/>
+      <c r="K3" s="1" t="inlineStr"/>
+      <c r="L3" s="1" t="inlineStr"/>
+      <c r="M3" s="1" t="inlineStr"/>
+    </row>
+    <row r="4" customHeight="1" ht="20">
       <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">XUSM3040</t>
-          </r>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">프로그램관리</t>
-          </r>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr"/>
-    </row>
-    <row r="5" customHeight="1" ht="533">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">납품일자</t>
+          </r>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="1" t="inlineStr"/>
+      <c r="H4" s="1" t="inlineStr"/>
+      <c r="I4" s="1" t="inlineStr"/>
+      <c r="J4" s="1" t="inlineStr"/>
+      <c r="K4" s="1" t="inlineStr"/>
+      <c r="L4" s="1" t="inlineStr"/>
+      <c r="M4" s="1" t="inlineStr"/>
+    </row>
+    <row r="5" customHeight="1" ht="20">
       <c r="A5" s="1" t="inlineStr"/>
-      <c r="B5" s="1" t="inlineStr"/>
-      <c r="C5" s="1" t="inlineStr"/>
-      <c r="D5" s="1" t="inlineStr"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">발주번호</t>
+          </r>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="inlineStr"/>
+      <c r="M5" s="1" t="inlineStr"/>
+    </row>
+    <row r="6" customHeight="1" ht="16">
+      <c r="A6" s="1" t="inlineStr"/>
+      <c r="B6" s="1" t="inlineStr"/>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr"/>
+      <c r="G6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr"/>
+      <c r="J6" s="1" t="inlineStr"/>
+      <c r="K6" s="1" t="inlineStr"/>
+      <c r="L6" s="1" t="inlineStr"/>
+      <c r="M6" s="1" t="inlineStr"/>
+    </row>
+    <row r="7" customHeight="1" ht="12">
+      <c r="A7" s="1" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">NO</t>
+          </r>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">자재코드</t>
+          </r>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">품명</t>
+          </r>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">규격</t>
+          </r>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위</t>
+          </r>
+        </is>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">수량</t>
+          </r>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단가</t>
+          </r>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">금액</t>
+          </r>
+        </is>
+      </c>
+      <c r="L7" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">바코드</t>
+          </r>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr"/>
+    </row>
+    <row r="8" customHeight="1" ht="18">
+      <c r="A8" s="1" t="inlineStr"/>
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">입고지시일</t>
+          </r>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
+      <c r="I8" s="4" t="inlineStr"/>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr"/>
+      <c r="L8" s="4" t="inlineStr"/>
+      <c r="M8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9" customHeight="1" ht="5">
+      <c r="A9" s="1" t="inlineStr"/>
+      <c r="B9" s="1" t="inlineStr"/>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr"/>
+      <c r="G9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="inlineStr"/>
+      <c r="J9" s="1" t="inlineStr"/>
+      <c r="K9" s="1" t="inlineStr"/>
+      <c r="L9" s="1" t="inlineStr"/>
+      <c r="M9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10" customHeight="1" ht="19">
+      <c r="A10" s="1" t="inlineStr"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">XUMD107</t>
+          </r>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr"/>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="K10" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="L10" s="4" t="inlineStr"/>
+      <c r="M10" s="1" t="inlineStr"/>
+    </row>
+    <row r="11" customHeight="1" ht="20">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">단위공정관리</t>
+          </r>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="4" t="inlineStr"/>
+      <c r="K11" s="4" t="inlineStr"/>
+      <c r="L11" s="4" t="inlineStr"/>
+      <c r="M11" s="1" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="379">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="1" t="inlineStr"/>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr"/>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="inlineStr"/>
+      <c r="M12" s="1" t="inlineStr"/>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
   <drawing r:id="rIdDr1"/>
 </worksheet>
 </file>